--- a/Producto/Web/Casos de prueba/9.xlsx
+++ b/Producto/Web/Casos de prueba/9.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="6810" yWindow="315" windowWidth="14805" windowHeight="7950" activeTab="2"/>
+    <workbookView xWindow="6810" yWindow="315" windowWidth="14805" windowHeight="7950"/>
   </bookViews>
   <sheets>
     <sheet name="DatosGenerales" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="34">
   <si>
     <t>ID</t>
   </si>
@@ -95,6 +95,30 @@
   </si>
   <si>
     <t>ingreso al sistema.</t>
+  </si>
+  <si>
+    <t>Selecciono la opcion Ingresar</t>
+  </si>
+  <si>
+    <t>El sistema muestra un popup para iniciar sesion o registrarse.</t>
+  </si>
+  <si>
+    <t>Selecciono l aopcion Registrarse</t>
+  </si>
+  <si>
+    <t>Se muesta un formulario para registrar un nuevo usuario</t>
+  </si>
+  <si>
+    <t>Ingreso "CPA_Nombre" en el campo nombre, "CPA_Apellido" en el campo apellido, "CPA_Usuario" en el campo usuario, "cpa_mail@cpa_mail.com" en el campo mail, "CPA_Contraseña" en los dos campos de contraseña</t>
+  </si>
+  <si>
+    <t>Tildo la opcion "Acepto terminos y condiciones"</t>
+  </si>
+  <si>
+    <t>Presiono el boton Registrarme</t>
+  </si>
+  <si>
+    <t>El sistema muestra un mensaje de éxito.</t>
   </si>
 </sst>
 </file>
@@ -162,7 +186,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -237,12 +261,23 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF4BACC6"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF548DD4"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
@@ -270,6 +305,9 @@
     </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -573,8 +611,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -692,10 +730,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -729,42 +767,61 @@
       <c r="C2" s="6"/>
       <c r="D2" s="1"/>
     </row>
-    <row r="3" spans="1:4" ht="15.75" thickBot="1">
+    <row r="3" spans="1:4" ht="26.25" thickBot="1">
       <c r="A3" s="7">
         <v>2</v>
       </c>
-      <c r="B3" s="6"/>
-      <c r="C3" s="8"/>
+      <c r="B3" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>27</v>
+      </c>
       <c r="D3" s="1"/>
     </row>
-    <row r="4" spans="1:4" ht="15.75" thickBot="1">
+    <row r="4" spans="1:4" ht="26.25" thickBot="1">
       <c r="A4" s="7">
         <v>3</v>
       </c>
-      <c r="B4" s="6"/>
-      <c r="C4" s="8"/>
+      <c r="B4" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>29</v>
+      </c>
       <c r="D4" s="1"/>
     </row>
-    <row r="5" spans="1:4" ht="15.75" thickBot="1">
+    <row r="5" spans="1:4" ht="77.25" thickBot="1">
       <c r="A5" s="7">
         <v>4</v>
       </c>
-      <c r="B5" s="6"/>
+      <c r="B5" s="6" t="s">
+        <v>30</v>
+      </c>
       <c r="C5" s="8"/>
     </row>
-    <row r="6" spans="1:4" ht="15.75" thickBot="1">
+    <row r="6" spans="1:4" ht="26.25" thickBot="1">
       <c r="A6" s="7">
         <v>5</v>
       </c>
-      <c r="B6" s="6"/>
+      <c r="B6" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="C6" s="8"/>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="7">
         <v>6</v>
       </c>
-      <c r="B7" s="6"/>
-      <c r="C7" s="8"/>
+      <c r="B7" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="12"/>
     </row>
   </sheetData>
   <hyperlinks>
